--- a/file_names.xlsx
+++ b/file_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\GitHub\5-CSRTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EF1133-BF96-4964-A53E-E5B630980A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12651F6D-B366-4727-BAAA-AFD49EF6C5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2256,8 +2256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H509"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:A145"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A44" sqref="A13:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
